--- a/Karkoschka+Tomasko-CH4Strengths.xlsx
+++ b/Karkoschka+Tomasko-CH4Strengths.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Astronomy\Projects\Planets\Saturn\Spectral Data\SaturnTitanSpectralAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0809710E-2E1E-4031-86AF-2C70C526513C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5463154-DEB4-4153-9FE1-497F97141D59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="1" xr2:uid="{E130E6B9-3B86-4D41-A5C1-504D7F80CCEA}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Altitude Comparisons" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
-  <si>
-    <t>KT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Hill</t>
   </si>
@@ -316,6 +312,12 @@
   <si>
     <t>From Wikipedia at 1 Bar level</t>
   </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>KT2010</t>
+  </si>
 </sst>
 </file>
 
@@ -440,7 +442,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -458,13 +460,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -801,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C2D542-CAFE-4D33-9FD0-B88A79682992}">
   <dimension ref="A1:L1750"/>
   <sheetViews>
-    <sheetView topLeftCell="A1334" workbookViewId="0">
-      <selection activeCell="E1320" sqref="E1320"/>
+    <sheetView topLeftCell="A762" workbookViewId="0">
+      <selection activeCell="I762" sqref="I762"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -46615,17 +46614,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4008B106-3D75-4529-AC71-14A38706BC25}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="K1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M1" s="4">
         <v>1010000</v>
@@ -46633,98 +46632,98 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="18">
+        <v>2.6870000000000002E+24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="17.5">
+      <c r="A3" s="13">
+        <v>543</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="C3" s="13">
+        <v>32.4</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="E3" s="13">
+        <v>543</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="13">
+        <v>29.8</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0.188</v>
+      </c>
+      <c r="K3" t="s">
         <v>9</v>
-      </c>
-      <c r="M2" s="19">
-        <v>2.6870000000000002E+24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="17.5">
-      <c r="A3" s="14">
-        <v>543</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="14">
-        <v>32.4</v>
-      </c>
-      <c r="D3" s="14">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="E3" s="14">
-        <v>543</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="14">
-        <v>29.8</v>
-      </c>
-      <c r="H3" s="14">
-        <v>0.188</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
       </c>
       <c r="M3">
         <v>2479</v>
       </c>
       <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
         <v>29</v>
       </c>
-      <c r="O3" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="4" spans="1:15" ht="16.5">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>705</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="B4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="14">
         <v>69.900000000000006</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>0.122</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>705</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="15">
+      <c r="F4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="14">
         <v>51</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="14">
         <v>0.16700000000000001</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" s="4">
         <v>3.8450000000000003E-24</v>
@@ -46735,7 +46734,7 @@
         <v>842</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>105</v>
@@ -46747,7 +46746,7 @@
         <v>842</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5">
         <v>114</v>
@@ -46756,39 +46755,39 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M5" s="4">
         <v>1.81E-3</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="17" thickBot="1">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>619</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="B6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="13">
         <v>143.30000000000001</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>0.255</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>619</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="14">
+      <c r="F6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="13">
         <v>131.80000000000001</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>0.27700000000000002</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
@@ -46798,7 +46797,7 @@
         <v>790</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>447.7</v>
@@ -46810,7 +46809,7 @@
         <v>790</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7">
         <v>363.3</v>
@@ -46820,74 +46819,76 @@
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5">
+      <c r="A8" s="14">
+        <v>862</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="14">
+        <v>678</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="E8" s="13">
+        <v>725</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="13">
+        <v>771</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:15" ht="16.5">
-      <c r="A8" s="15">
+      <c r="M8" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="17" thickBot="1">
+      <c r="A9" s="13">
+        <v>725</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="13">
+        <v>765.4</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="E9" s="14">
         <v>862</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="15">
-        <v>678</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="E8" s="14">
-        <v>725</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="14">
-        <v>771</v>
-      </c>
-      <c r="H8" s="14">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="9" t="s">
+      <c r="F9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="14">
+        <v>823</v>
+      </c>
+      <c r="H9" s="14">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="17" thickBot="1">
-      <c r="A9" s="14">
-        <v>725</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="14">
-        <v>765.4</v>
-      </c>
-      <c r="D9" s="14">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="E9" s="15">
-        <v>862</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="15">
-        <v>823</v>
-      </c>
-      <c r="H9" s="15">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10" t="s">
+      <c r="M9" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="16.5">
@@ -46895,7 +46896,7 @@
         <v>889</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>6200</v>
@@ -46907,7 +46908,7 @@
         <v>889</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10">
         <v>5753</v>
@@ -46915,32 +46916,32 @@
       <c r="H10">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="K10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
+      <c r="K10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="K11" s="20">
+      <c r="K11" s="19">
         <v>3.15</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="11">
         <f>(L12+D14)/K11</f>
         <v>3.030060302126612E-2</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="12">
         <f>(L11*M$2*M$4*M$3/M$5)/M$1</f>
         <v>0.42451384646958717</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="17">
         <f>M11-M12</f>
         <v>-0.35827152798198597</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="C12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <f>AVERAGE(D3:D9)</f>
@@ -46951,19 +46952,19 @@
         <v>0.19057142857142859</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="L12" s="12">
+      <c r="L12" s="11">
         <f>D12/K11</f>
         <v>5.5873015873015873E-2</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="12">
         <f>(L12*M$2*M$4*M$3/M$5)/M$1</f>
         <v>0.78278537445157315</v>
       </c>
-      <c r="N12" s="18"/>
+      <c r="N12" s="17"/>
     </row>
     <row r="13" spans="1:15">
       <c r="C13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2">
         <f>STDEV(D3:D9)</f>
@@ -46974,22 +46975,22 @@
         <v>7.065374994260662E-2</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="L13" s="12">
+      <c r="L13" s="11">
         <f>(L12-D14)/K11</f>
         <v>5.1743276917598328E-3</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="12">
         <f>(L13*M$2*M$4*M$3/M$5)/M$1</f>
         <v>7.2492740483792617E-2</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="17">
         <f>M13-M12</f>
         <v>-0.71029263396778053</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2">
         <f>1.96*D13/SQRT(COUNT(D3:D9))</f>
@@ -47003,7 +47004,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="3">
         <f>D14/D12</f>
@@ -47014,6 +47015,30 @@
         <v>0.27465308322554055</v>
       </c>
       <c r="I15" s="3"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20">
+        <f>10000000/619</f>
+        <v>16155.088852988691</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21">
+        <f>10000000/(619-1.51)</f>
+        <v>16194.594244441205</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22">
+        <f>C21-C20</f>
+        <v>39.505391452514232</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23">
+        <f>C22/148</f>
+        <v>0.26692832062509614</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:H10">

--- a/Karkoschka+Tomasko-CH4Strengths.xlsx
+++ b/Karkoschka+Tomasko-CH4Strengths.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Astronomy\Projects\Planets\Saturn\Spectral Data\SaturnTitanSpectralAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5463154-DEB4-4153-9FE1-497F97141D59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D6186F-46F1-4458-8D22-EC70F18E2637}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="1" xr2:uid="{E130E6B9-3B86-4D41-A5C1-504D7F80CCEA}"/>
   </bookViews>
@@ -800,7 +800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C2D542-CAFE-4D33-9FD0-B88A79682992}">
   <dimension ref="A1:L1750"/>
   <sheetViews>
-    <sheetView topLeftCell="A762" workbookViewId="0">
+    <sheetView topLeftCell="A677" workbookViewId="0">
       <selection activeCell="I762" sqref="I762"/>
     </sheetView>
   </sheetViews>
@@ -46616,8 +46616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4008B106-3D75-4529-AC71-14A38706BC25}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
